--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -508,18 +508,6 @@
     <t>igswg</t>
   </si>
   <si>
-    <t>oswhdig</t>
-  </si>
-  <si>
-    <t>iwdgdiywg</t>
-  </si>
-  <si>
-    <t>wgydigidw</t>
-  </si>
-  <si>
-    <t>86t8dw</t>
-  </si>
-  <si>
     <t>epfijeo</t>
   </si>
   <si>
@@ -566,6 +554,18 @@
   </si>
   <si>
     <t>8t8d</t>
+  </si>
+  <si>
+    <t>deondo</t>
+  </si>
+  <si>
+    <t>ojefonwoefd</t>
+  </si>
+  <si>
+    <t>ndifn</t>
+  </si>
+  <si>
+    <t>ofb</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2547,7 @@
         <v>168</v>
       </c>
       <c r="E62">
-        <v>878</v>
+        <v>786</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>44307.72693708334</v>
+        <v>44307.72815350695</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>172</v>
       </c>
       <c r="E63">
-        <v>786</v>
+        <v>686</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>44307.72815350695</v>
+        <v>44307.72900662037</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,16 +2599,16 @@
         <v>176</v>
       </c>
       <c r="E64">
-        <v>686</v>
+        <v>868</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>44307.72900662037</v>
+        <v>44307.72914921296</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2625,16 +2625,16 @@
         <v>180</v>
       </c>
       <c r="E65">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>44307.72914921296</v>
+        <v>44307.73008920139</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>184</v>
       </c>
       <c r="E66">
-        <v>876</v>
+        <v>979</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>44307.73008920139</v>
+        <v>44308.12357487269</v>
       </c>
     </row>
   </sheetData>

--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="186">
   <si>
     <t>Nombre Vendedor</t>
   </si>
@@ -238,204 +238,183 @@
     <t>piefjpejf</t>
   </si>
   <si>
-    <t>fojwo</t>
-  </si>
-  <si>
-    <t>igiy</t>
-  </si>
-  <si>
-    <t>ig</t>
-  </si>
-  <si>
-    <t>hediuh</t>
+    <t>b8tf</t>
+  </si>
+  <si>
+    <t>ugiy</t>
+  </si>
+  <si>
+    <t>giy</t>
+  </si>
+  <si>
+    <t>oudhsiu</t>
+  </si>
+  <si>
+    <t>utfut</t>
+  </si>
+  <si>
+    <t>uyfut</t>
+  </si>
+  <si>
+    <t>75r7</t>
+  </si>
+  <si>
+    <t>odheiy</t>
+  </si>
+  <si>
+    <t>ufyudf</t>
+  </si>
+  <si>
+    <t>fujfut</t>
+  </si>
+  <si>
+    <t>futfy</t>
+  </si>
+  <si>
+    <t>gutf</t>
+  </si>
+  <si>
+    <t>ufutfu</t>
+  </si>
+  <si>
+    <t>iyfutf</t>
+  </si>
+  <si>
+    <t>ifiuf</t>
+  </si>
+  <si>
+    <t>doehi</t>
+  </si>
+  <si>
+    <t>fujf</t>
+  </si>
+  <si>
+    <t>ugfutfu</t>
+  </si>
+  <si>
+    <t>fufcu</t>
+  </si>
+  <si>
+    <t>dedgiyeg</t>
+  </si>
+  <si>
+    <t>futf</t>
+  </si>
+  <si>
+    <t>ufyuf</t>
+  </si>
+  <si>
+    <t>utfutf</t>
+  </si>
+  <si>
+    <t>degdyig</t>
+  </si>
+  <si>
+    <t>utfduwef</t>
+  </si>
+  <si>
+    <t>yfudt</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>deohdi</t>
+  </si>
+  <si>
+    <t>iygieydg</t>
+  </si>
+  <si>
+    <t>dgeiyg</t>
+  </si>
+  <si>
+    <t>fieyf</t>
+  </si>
+  <si>
+    <t>forhfwi</t>
+  </si>
+  <si>
+    <t>igdi</t>
+  </si>
+  <si>
+    <t>ygd</t>
+  </si>
+  <si>
+    <t>igi</t>
+  </si>
+  <si>
+    <t>jdeijfouho</t>
+  </si>
+  <si>
+    <t>hiygiyg</t>
+  </si>
+  <si>
+    <t>iygiyg</t>
+  </si>
+  <si>
+    <t>igiyg</t>
+  </si>
+  <si>
+    <t>ofnjfho</t>
+  </si>
+  <si>
+    <t>higy</t>
+  </si>
+  <si>
+    <t>iy</t>
+  </si>
+  <si>
+    <t>edohigig</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>utff</t>
+  </si>
+  <si>
+    <t>dekfhi</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>fuf</t>
+  </si>
+  <si>
+    <t>deijdo</t>
+  </si>
+  <si>
+    <t>igui</t>
+  </si>
+  <si>
+    <t>86t8</t>
+  </si>
+  <si>
+    <t>ouhefi</t>
+  </si>
+  <si>
+    <t>guyguy</t>
+  </si>
+  <si>
+    <t>yguyg</t>
+  </si>
+  <si>
+    <t>dekbdi</t>
+  </si>
+  <si>
+    <t>gegdu</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>gyi</t>
   </si>
   <si>
-    <t>giy</t>
-  </si>
-  <si>
-    <t>Barry Allen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrid </t>
-  </si>
-  <si>
-    <t>2 tequilas jose cuervo</t>
-  </si>
-  <si>
-    <t>b8tf</t>
-  </si>
-  <si>
-    <t>ugiy</t>
-  </si>
-  <si>
-    <t>oudhsiu</t>
-  </si>
-  <si>
-    <t>utfut</t>
-  </si>
-  <si>
-    <t>uyfut</t>
-  </si>
-  <si>
-    <t>75r7</t>
-  </si>
-  <si>
-    <t>odheiy</t>
-  </si>
-  <si>
-    <t>ufyudf</t>
-  </si>
-  <si>
-    <t>fujfut</t>
-  </si>
-  <si>
-    <t>futfy</t>
-  </si>
-  <si>
-    <t>gutf</t>
-  </si>
-  <si>
-    <t>ufutfu</t>
-  </si>
-  <si>
-    <t>iyfutf</t>
-  </si>
-  <si>
-    <t>ifiuf</t>
-  </si>
-  <si>
-    <t>doehi</t>
-  </si>
-  <si>
-    <t>fujf</t>
-  </si>
-  <si>
-    <t>ugfutfu</t>
-  </si>
-  <si>
-    <t>fufcu</t>
-  </si>
-  <si>
-    <t>dedgiyeg</t>
-  </si>
-  <si>
-    <t>futf</t>
-  </si>
-  <si>
-    <t>ufyuf</t>
-  </si>
-  <si>
-    <t>utfutf</t>
-  </si>
-  <si>
-    <t>degdyig</t>
-  </si>
-  <si>
-    <t>utfduwef</t>
-  </si>
-  <si>
-    <t>yfudt</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>deohdi</t>
-  </si>
-  <si>
-    <t>iygieydg</t>
-  </si>
-  <si>
-    <t>dgeiyg</t>
-  </si>
-  <si>
-    <t>fieyf</t>
-  </si>
-  <si>
-    <t>forhfwi</t>
-  </si>
-  <si>
-    <t>igdi</t>
-  </si>
-  <si>
-    <t>ygd</t>
-  </si>
-  <si>
-    <t>igi</t>
-  </si>
-  <si>
-    <t>jdeijfouho</t>
-  </si>
-  <si>
-    <t>hiygiyg</t>
-  </si>
-  <si>
-    <t>iygiyg</t>
-  </si>
-  <si>
-    <t>igiyg</t>
-  </si>
-  <si>
-    <t>ofnjfho</t>
-  </si>
-  <si>
-    <t>higy</t>
-  </si>
-  <si>
-    <t>iy</t>
-  </si>
-  <si>
-    <t>edohigig</t>
-  </si>
-  <si>
-    <t>fut</t>
-  </si>
-  <si>
-    <t>fu</t>
-  </si>
-  <si>
-    <t>utff</t>
-  </si>
-  <si>
-    <t>dekfhi</t>
-  </si>
-  <si>
-    <t>gu</t>
-  </si>
-  <si>
-    <t>fuf</t>
-  </si>
-  <si>
-    <t>deijdo</t>
-  </si>
-  <si>
-    <t>igui</t>
-  </si>
-  <si>
-    <t>86t8</t>
-  </si>
-  <si>
-    <t>ouhefi</t>
-  </si>
-  <si>
-    <t>guyguy</t>
-  </si>
-  <si>
-    <t>yguyg</t>
-  </si>
-  <si>
-    <t>dekbdi</t>
-  </si>
-  <si>
-    <t>gegdu</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>dhediu</t>
   </si>
   <si>
@@ -566,6 +545,30 @@
   </si>
   <si>
     <t>ofb</t>
+  </si>
+  <si>
+    <t>wdpowdp</t>
+  </si>
+  <si>
+    <t>wpfdjfo</t>
+  </si>
+  <si>
+    <t>dohwofh</t>
+  </si>
+  <si>
+    <t>dhouh</t>
+  </si>
+  <si>
+    <t>wdkbi</t>
+  </si>
+  <si>
+    <t>gdwigd</t>
+  </si>
+  <si>
+    <t>igwi</t>
+  </si>
+  <si>
+    <t>gywiwgq</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H65"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="8" width="10" customWidth="1"/>
@@ -1885,19 +1888,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
       <c r="E37">
-        <v>677</v>
+        <v>865</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1906,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>44307.25695427084</v>
+        <v>44307.689226296294</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,13 +1917,13 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38">
         <v>868</v>
@@ -1932,50 +1935,50 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>44307.25786840278</v>
+        <v>44307.69016722222</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39">
-        <v>68.4</v>
+        <v>688</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>44307.65462302083</v>
+        <v>44307.691061273144</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E40">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1984,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>44307.689226296294</v>
+        <v>44307.69167866898</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>868</v>
@@ -2010,24 +2013,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>44307.69016722222</v>
+        <v>44307.69227208333</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E42">
-        <v>688</v>
+        <v>868</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2036,24 +2039,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>44307.691061273144</v>
+        <v>44307.69272253472</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E43">
-        <v>867</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2062,24 +2065,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>44307.69167866898</v>
+        <v>44307.69331072917</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E44">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2088,50 +2091,50 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>44307.69227208333</v>
+        <v>44307.69574778935</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45">
-        <v>868</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
-        <v>44307.69272253472</v>
+        <v>44307.706072534726</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E46">
-        <v>86</v>
+        <v>9789</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2140,24 +2143,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>44307.69331072917</v>
+        <v>44307.706996180554</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E47">
-        <v>866</v>
+        <v>686</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2166,50 +2169,50 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>44307.69574778935</v>
+        <v>44307.70803918982</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>868</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>44307.706072534726</v>
+        <v>44307.708957361116</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E49">
-        <v>9789</v>
+        <v>767</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2218,24 +2221,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>44307.706996180554</v>
+        <v>44307.70980328704</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E50">
-        <v>686</v>
+        <v>868</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2244,24 +2247,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>44307.70803918982</v>
+        <v>44307.711457673606</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51">
-        <v>868</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2270,24 +2273,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>44307.708957361116</v>
+        <v>44307.71216431713</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52">
-        <v>767</v>
+        <v>87686</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2296,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>44307.70980328704</v>
+        <v>44307.71316248842</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E53">
         <v>868</v>
@@ -2319,27 +2322,27 @@
         <v>12</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>44307.711457673606</v>
+        <v>44307.71593719907</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E54">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2348,24 +2351,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>44307.71216431713</v>
+        <v>44307.71771842593</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E55">
-        <v>87686</v>
+        <v>343</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2374,50 +2377,50 @@
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>44307.71316248842</v>
+        <v>44307.71891880787</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E56">
-        <v>868</v>
+        <v>433</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>44307.71593719907</v>
+        <v>44307.71906466435</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E57">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -2426,24 +2429,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>44307.71771842593</v>
+        <v>44307.725324467596</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E58">
-        <v>343</v>
+        <v>686</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -2452,24 +2455,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>44307.71891880787</v>
+        <v>44307.72628260417</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E59">
-        <v>433</v>
+        <v>786</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2478,24 +2481,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>44307.71906466435</v>
+        <v>44307.72815350695</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E60">
-        <v>86</v>
+        <v>686</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2504,50 +2507,50 @@
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>44307.725324467596</v>
+        <v>44307.72900662037</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E61">
-        <v>686</v>
+        <v>868</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>44307.72628260417</v>
+        <v>44307.72914921296</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E62">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2556,24 +2559,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>44307.72815350695</v>
+        <v>44307.73008920139</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E63">
-        <v>686</v>
+        <v>979</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -2582,50 +2585,50 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>44307.72900662037</v>
+        <v>44308.12357487269</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E64">
-        <v>868</v>
+        <v>9768</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>44307.72914921296</v>
+        <v>44308.15103784722</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E65">
-        <v>876</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -2634,33 +2637,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>44307.73008920139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66">
-        <v>979</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>44308.12357487269</v>
+        <v>44308.16447158565</v>
       </c>
     </row>
   </sheetData>
